--- a/xlsx/南乔治亚和南桑威奇群岛_intext.xlsx
+++ b/xlsx/南乔治亚和南桑威奇群岛_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="347">
   <si>
     <t>南乔治亚和南桑威奇群岛</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_南乔治亚和南桑威奇群岛</t>
+    <t>英语</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_南乔治亚和南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%91%E5%A5%B3%E7%8E%8B</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%88%A9%E5%BE%B7%E7%B6%AD%E8%82%AF</t>
   </si>
   <si>
-    <t>古利德維肯</t>
+    <t>古利德维肯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國海外領地</t>
+    <t>英国海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%E4%BA%8C%E4%B8%96</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%B9%94%E6%B2%BB%E4%BA%9A%E5%92%8C%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B2%9B%E4%B8%93%E5%91%98</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E9%8E%8A</t>
   </si>
   <si>
-    <t>福克蘭群島鎊</t>
+    <t>福克兰群岛镑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.gs</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%2B500</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E5%AD%97%E6%AF%8D%E7%B8%AE%E7%95%A5%E5%AD%97</t>
   </si>
   <si>
-    <t>首字母縮略字</t>
+    <t>首字母缩略字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -209,31 +209,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%9F</t>
   </si>
   <si>
-    <t>英國海外領土</t>
+    <t>英国海外领土</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BD%90%E6%B2%BB%E4%BA%9E</t>
   </si>
   <si>
-    <t>南佐治亞</t>
+    <t>南佐治亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南桑威奇群島</t>
+    <t>南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>地緣政治</t>
+    <t>地缘政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E4%BC%81%E9%B5%9D</t>
   </si>
   <si>
-    <t>王企鵝</t>
+    <t>王企鹅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E4%BA%BA</t>
@@ -263,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>阿根廷國旗</t>
+    <t>阿根廷国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%A0%B9%E5%BB%B7%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>阿根廷總統</t>
+    <t>阿根廷总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B0%94%E9%93%81%E9%87%8C</t>
@@ -281,15 +281,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭戰爭</t>
+    <t>福克兰战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
-    <t>英国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Outlying_territories_of_European_countries</t>
   </si>
   <si>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -329,19 +326,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%88%A9%E7%8F%80%E9%A0%93%E5%B3%B6</t>
   </si>
   <si>
-    <t>克利珀頓島</t>
+    <t>克利珀顿岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E7%8E%BB%E9%87%8C%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>法屬玻里尼西亞</t>
+    <t>法属玻里尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%BE%B7%E7%BD%97%E6%99%AE</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%96%80%E9%87%8C%E5%A4%9A%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>新喀里多尼亞</t>
+    <t>新喀里多尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%B0%BC%E6%B1%AA</t>
@@ -383,7 +380,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86%E7%BE%A4%E5%B2%9B</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E6%96%AF%E5%92%8C%E5%AF%8C%E5%9C%96%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>瓦利斯和富圖納群島</t>
+    <t>瓦利斯和富图纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%9E%E5%8D%97%E9%83%A8%E5%92%8C%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -479,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E6%8B%89%E7%B4%A2</t>
@@ -491,13 +488,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E5%B8%82</t>
   </si>
   <si>
-    <t>特別市</t>
+    <t>特别市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%B0%A4%E6%96%AF%E7%89%B9%E6%AD%87%E6%96%AF</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E5%B7%B4</t>
   </si>
   <si>
-    <t>薩巴</t>
+    <t>萨巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A5%88%E5%B0%94</t>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -647,25 +644,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維爾京群島</t>
+    <t>英属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E5%85%B0%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
-    <t>福克兰群岛</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E5%92%8C%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -683,7 +677,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -695,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%B4%B2</t>
   </si>
   <si>
-    <t>南極洲</t>
+    <t>南极洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%A5%B5%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>南極條約</t>
+    <t>南极条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%9D%83%E5%B1%9E%E5%9C%B0</t>
@@ -725,19 +719,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
   </si>
   <si>
-    <t>澤西</t>
+    <t>泽西</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%85%8B%E7%BE%85%E6%8F%90%E5%88%A9%E8%88%87%E5%BE%B7%E5%87%B1%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞克羅提利與德凱利亞</t>
+    <t>亚克罗提利与德凯利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -761,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
@@ -863,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -887,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -905,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -953,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -977,25 +971,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1013,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1031,15 +1022,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
   </si>
   <si>
-    <t>南极洲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
   </si>
   <si>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2743,7 +2731,7 @@
         <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2769,10 +2757,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2798,10 +2786,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2827,10 +2815,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>9</v>
@@ -2856,10 +2844,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2885,10 +2873,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2914,10 +2902,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2943,10 +2931,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2972,10 +2960,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3001,10 +2989,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3030,10 +3018,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3059,10 +3047,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3088,10 +3076,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3117,10 +3105,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3146,10 +3134,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3175,10 +3163,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3204,10 +3192,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3233,10 +3221,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3262,10 +3250,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3291,10 +3279,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3320,10 +3308,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3349,10 +3337,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3378,10 +3366,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3407,10 +3395,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3436,10 +3424,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3465,10 +3453,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3494,10 +3482,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3523,10 +3511,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3552,10 +3540,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3581,10 +3569,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3610,10 +3598,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3639,10 +3627,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3668,10 +3656,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -3697,10 +3685,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3726,10 +3714,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -3755,10 +3743,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3784,10 +3772,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3813,10 +3801,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3842,10 +3830,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3871,10 +3859,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3900,10 +3888,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3929,10 +3917,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3958,10 +3946,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3987,10 +3975,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4016,10 +4004,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4045,10 +4033,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4074,10 +4062,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4103,10 +4091,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4132,10 +4120,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4161,10 +4149,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4190,10 +4178,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4219,10 +4207,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4248,10 +4236,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4277,10 +4265,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4306,10 +4294,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>3</v>
@@ -4335,10 +4323,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4364,10 +4352,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4393,10 +4381,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4422,10 +4410,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4451,10 +4439,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4480,10 +4468,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4509,10 +4497,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4538,10 +4526,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>70</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4567,10 +4555,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4596,10 +4584,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4625,10 +4613,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4654,10 +4642,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4683,10 +4671,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4712,10 +4700,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4741,10 +4729,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4799,10 +4787,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4828,10 +4816,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>208</v>
+      </c>
+      <c r="F118" t="s">
         <v>209</v>
-      </c>
-      <c r="F118" t="s">
-        <v>210</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4857,10 +4845,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>210</v>
+      </c>
+      <c r="F119" t="s">
         <v>211</v>
-      </c>
-      <c r="F119" t="s">
-        <v>212</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4886,10 +4874,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4915,10 +4903,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>198</v>
+      </c>
+      <c r="F121" t="s">
         <v>199</v>
-      </c>
-      <c r="F121" t="s">
-        <v>200</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4944,10 +4932,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4973,10 +4961,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5002,10 +4990,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5031,10 +5019,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F125" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5060,10 +5048,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5089,10 +5077,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>4</v>
@@ -5118,10 +5106,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5147,10 +5135,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5176,10 +5164,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5205,10 +5193,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5234,10 +5222,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5263,10 +5251,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5292,10 +5280,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5321,10 +5309,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5350,10 +5338,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5379,10 +5367,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5408,10 +5396,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5437,10 +5425,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5466,10 +5454,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5495,10 +5483,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5524,10 +5512,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5553,10 +5541,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5582,10 +5570,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5611,10 +5599,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5640,10 +5628,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5669,10 +5657,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5698,10 +5686,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5727,10 +5715,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5756,10 +5744,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5785,10 +5773,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5814,10 +5802,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5843,10 +5831,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5872,10 +5860,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5901,10 +5889,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -5930,10 +5918,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5959,10 +5947,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5988,10 +5976,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6017,10 +6005,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6046,10 +6034,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6075,10 +6063,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6104,10 +6092,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6133,10 +6121,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6162,10 +6150,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6191,10 +6179,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6220,10 +6208,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6249,10 +6237,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>8</v>
@@ -6278,10 +6266,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>156</v>
+      </c>
+      <c r="F168" t="s">
         <v>157</v>
-      </c>
-      <c r="F168" t="s">
-        <v>158</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6307,10 +6295,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>206</v>
+      </c>
+      <c r="F169" t="s">
         <v>207</v>
-      </c>
-      <c r="F169" t="s">
-        <v>208</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6336,10 +6324,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" t="s">
         <v>99</v>
-      </c>
-      <c r="F170" t="s">
-        <v>100</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6365,10 +6353,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>120</v>
+      </c>
+      <c r="F171" t="s">
         <v>121</v>
-      </c>
-      <c r="F171" t="s">
-        <v>122</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6394,10 +6382,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F172" t="s">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6423,10 +6411,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F173" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6452,10 +6440,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F174" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6481,10 +6469,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6510,10 +6498,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F176" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6539,10 +6527,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6568,10 +6556,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6597,10 +6585,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6626,10 +6614,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6655,10 +6643,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>340</v>
+        <v>224</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -6684,10 +6672,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F182" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6713,10 +6701,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F183" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6742,10 +6730,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F184" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -6771,10 +6759,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F185" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6800,10 +6788,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F186" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
